--- a/biology/Zoologie/Willem_Boers/Willem_Boers.xlsx
+++ b/biology/Zoologie/Willem_Boers/Willem_Boers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem Cornelis Boers (1744-1803) fut un avocat néerlandais originaire de La Haye qui envoyé au Cap, eut dans cette colonie d'importantes charges fiscales, judiciaires et financières. Il reçut très aimablement l'explorateur François Levaillant à son arrivée au Cap le 14 avril 1781. Intéressé par l'histoire naturelle, il avait commencé à constituer un cabinet de curiosités. Sa maison, située 78 Buitenkant Street,  fut construite en 1777. Elle est devenue une galerie : Rust en  Vreugd Gallery, qui expose les œuvres sur papier de la collection William Fehr.
 </t>
